--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/numbers.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/numbers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>2023-10-17 13:42:35 6 question_6_2</t>
+  </si>
+  <si>
+    <t>6 question</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -497,6 +506,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/numbers.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/numbers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>2023-10-22 21:36:58 7 question_7_8530875</t>
+  </si>
+  <si>
+    <t>7 question</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -517,6 +526,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
